--- a/outputs-HGR-r202-archive/g__Anaerotignum.xlsx
+++ b/outputs-HGR-r202-archive/g__Anaerotignum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,59 +521,59 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17016.fa</t>
+          <t>even_MAG-GUT22456.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.4571429</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.5428571</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.5428571</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>s__Anaerotignum faecicola</t>
+          <t>s__Anaerotignum sp001304995</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>s__Anaerotignum faecicola</t>
+          <t>s__Anaerotignum sp001304995(reject)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17488.fa</t>
+          <t>even_MAG-GUT37858.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>s__Anaerotignum faecicola</t>
+          <t>s__Anaerotignum sp001304995</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>s__Anaerotignum faecicola</t>
+          <t>s__Anaerotignum sp001304995</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20896.fa</t>
+          <t>even_MAG-GUT39107.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -599,69 +599,69 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22456.fa</t>
+          <t>even_MAG-GUT4268.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4571429</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5428571</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5428571</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>s__Anaerotignum sp001304995</t>
+          <t>s__Anaerotignum faecicola</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>s__Anaerotignum sp001304995(reject)</t>
+          <t>s__Anaerotignum faecicola</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25077.fa</t>
+          <t>even_MAG-GUT43178.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>s__Anaerotignum faecicola</t>
+          <t>s__Anaerotignum sp001304995</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>s__Anaerotignum faecicola</t>
+          <t>s__Anaerotignum sp001304995</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37378.fa</t>
+          <t>even_MAG-GUT5430.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4571429</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5428571</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5428571</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -670,501 +670,85 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>s__Anaerotignum sp001304995(reject)</t>
+          <t>s__Anaerotignum sp001304995</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37858.fa</t>
+          <t>even_MAG-GUT60274.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>s__Anaerotignum sp001304995</t>
+          <t>s__Anaerotignum faecicola</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>s__Anaerotignum sp001304995</t>
+          <t>s__Anaerotignum faecicola</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39107.fa</t>
+          <t>even_MAG-GUT62028.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>s__Anaerotignum faecicola</t>
+          <t>s__Anaerotignum sp001304995</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>s__Anaerotignum faecicola</t>
+          <t>s__Anaerotignum sp001304995</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41528.fa</t>
+          <t>even_MAG-GUT72315.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>s__Anaerotignum faecicola</t>
+          <t>s__Anaerotignum sp001304995</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT4268.fa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT43178.fa</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT43289.fa</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT5430.fa</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT58303.fa</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT59077.fa</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT59980.fa</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT60274.fa</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT60799.fa</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT62028.fa</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT72315.fa</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74622.fa</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.4571429</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.5428571</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.5428571</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81205.fa</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81308.fa</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81831.fa</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum faecicola</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT87133.fa</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.4571429</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.5428571</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.5428571</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>s__Anaerotignum sp001304995(reject)</t>
+          <t>s__Anaerotignum sp001304995</t>
         </is>
       </c>
     </row>
